--- a/data_kelulusan.xlsx
+++ b/data_kelulusan.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Belajar Machine Learning\Coba\kelulusan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>Nilai_Matematika</t>
   </si>
@@ -37,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +106,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -147,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,9 +192,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +227,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,14 +403,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>80</v>
       </c>
@@ -423,7 +446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>70</v>
       </c>
@@ -437,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>60</v>
       </c>
@@ -451,7 +474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>85</v>
       </c>
@@ -465,7 +488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>55</v>
       </c>
@@ -477,6 +500,62 @@
       </c>
       <c r="D6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>75</v>
+      </c>
+      <c r="B8">
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>83</v>
+      </c>
+      <c r="B9">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
